--- a/team_specific_matrix/Oklahoma_B.xlsx
+++ b/team_specific_matrix/Oklahoma_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1226993865030675</v>
+        <v>0.1246819338422392</v>
       </c>
       <c r="C2">
-        <v>0.6748466257668712</v>
+        <v>0.6717557251908397</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01533742331288344</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1073619631901841</v>
+        <v>0.1043256997455471</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07975460122699386</v>
+        <v>0.08396946564885496</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04329004329004329</v>
+        <v>0.03985507246376811</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7705627705627706</v>
+        <v>0.7862318840579711</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1861471861471861</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04838709677419355</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01612903225806452</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P4">
-        <v>0.6935483870967742</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2419354838709677</v>
+        <v>0.2361111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0561056105610561</v>
+        <v>0.06182795698924731</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0165016501650165</v>
+        <v>0.01344086021505376</v>
       </c>
       <c r="E6">
-        <v>0.0033003300330033</v>
+        <v>0.002688172043010753</v>
       </c>
       <c r="F6">
-        <v>0.0462046204620462</v>
+        <v>0.0456989247311828</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2442244224422442</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0264026402640264</v>
+        <v>0.02956989247311828</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1815181518151815</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0.0627062706270627</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="S6">
-        <v>0.363036303630363</v>
+        <v>0.3897849462365591</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1028938906752412</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02572347266881029</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E7">
-        <v>0.003215434083601286</v>
+        <v>0.002645502645502645</v>
       </c>
       <c r="F7">
-        <v>0.06430868167202572</v>
+        <v>0.06084656084656084</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1093247588424437</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03215434083601286</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2090032154340836</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="R7">
-        <v>0.06752411575562701</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="S7">
-        <v>0.3858520900321543</v>
+        <v>0.4100529100529101</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09359605911330049</v>
+        <v>0.09664948453608248</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01970443349753695</v>
+        <v>0.01804123711340206</v>
       </c>
       <c r="E8">
-        <v>0.001642036124794745</v>
+        <v>0.001288659793814433</v>
       </c>
       <c r="F8">
-        <v>0.0755336617405583</v>
+        <v>0.07860824742268041</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05254515599343185</v>
+        <v>0.05541237113402062</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02298850574712644</v>
+        <v>0.02319587628865979</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1904761904761905</v>
+        <v>0.1842783505154639</v>
       </c>
       <c r="R8">
-        <v>0.07060755336617405</v>
+        <v>0.06572164948453608</v>
       </c>
       <c r="S8">
-        <v>0.4729064039408867</v>
+        <v>0.4768041237113402</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0736196319018405</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0245398773006135</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04294478527607362</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06441717791411043</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01840490797546012</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1901840490797546</v>
+        <v>0.1843434343434343</v>
       </c>
       <c r="R9">
-        <v>0.09815950920245399</v>
+        <v>0.1035353535353535</v>
       </c>
       <c r="S9">
-        <v>0.4877300613496933</v>
+        <v>0.4924242424242424</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1033478893740902</v>
+        <v>0.09710494571773221</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01892285298398836</v>
+        <v>0.01990349819059107</v>
       </c>
       <c r="E10">
-        <v>0.000727802037845706</v>
+        <v>0.0006031363088057901</v>
       </c>
       <c r="F10">
-        <v>0.05167394468704512</v>
+        <v>0.05729794933655006</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09388646288209607</v>
+        <v>0.09589867310012062</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02037845705967977</v>
+        <v>0.01930036188178528</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2270742358078603</v>
+        <v>0.2273823884197829</v>
       </c>
       <c r="R10">
-        <v>0.07496360989810771</v>
+        <v>0.07418576598311219</v>
       </c>
       <c r="S10">
-        <v>0.4090247452692867</v>
+        <v>0.4083232810615199</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.002028397565922921</v>
+        <v>0.001692047377326565</v>
       </c>
       <c r="G11">
-        <v>0.1399594320486816</v>
+        <v>0.1404399323181049</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07302231237322515</v>
+        <v>0.06429780033840947</v>
       </c>
       <c r="K11">
-        <v>0.2210953346855984</v>
+        <v>0.2131979695431472</v>
       </c>
       <c r="L11">
-        <v>0.4969574036511156</v>
+        <v>0.5126903553299492</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.06693711967545639</v>
+        <v>0.06768189509306261</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7576923076923077</v>
+        <v>0.7461300309597523</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06923076923076923</v>
+        <v>0.07430340557275542</v>
       </c>
       <c r="K12">
-        <v>0.01153846153846154</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="L12">
-        <v>0.03846153846153846</v>
+        <v>0.04024767801857585</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.1230769230769231</v>
+        <v>0.1269349845201238</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1166666666666667</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1333333333333333</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04451038575667656</v>
+        <v>0.04207920792079208</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1068249258160237</v>
+        <v>0.1163366336633663</v>
       </c>
       <c r="I15">
-        <v>0.09198813056379822</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="J15">
-        <v>0.2522255192878338</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
-        <v>0.05934718100890208</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008902077151335312</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="N15">
-        <v>0.002967359050445104</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="O15">
-        <v>0.0830860534124629</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3501483679525222</v>
+        <v>0.349009900990099</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03296703296703297</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1465201465201465</v>
+        <v>0.1606060606060606</v>
       </c>
       <c r="I16">
-        <v>0.08424908424908426</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="J16">
-        <v>0.3223443223443224</v>
+        <v>0.3121212121212121</v>
       </c>
       <c r="K16">
-        <v>0.09523809523809523</v>
+        <v>0.08787878787878788</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03296703296703297</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="N16">
-        <v>0.003663003663003663</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="O16">
-        <v>0.05494505494505494</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2271062271062271</v>
+        <v>0.2303030303030303</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02272727272727273</v>
+        <v>0.02</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1633522727272727</v>
+        <v>0.1682352941176471</v>
       </c>
       <c r="I17">
-        <v>0.1051136363636364</v>
+        <v>0.1035294117647059</v>
       </c>
       <c r="J17">
-        <v>0.3423295454545455</v>
+        <v>0.3364705882352941</v>
       </c>
       <c r="K17">
-        <v>0.1065340909090909</v>
+        <v>0.1070588235294118</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01420454545454545</v>
+        <v>0.01529411764705882</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001176470588235294</v>
       </c>
       <c r="O17">
-        <v>0.05681818181818182</v>
+        <v>0.05764705882352941</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1889204545454546</v>
+        <v>0.1905882352941176</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.016</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.156</v>
+        <v>0.1598639455782313</v>
       </c>
       <c r="I18">
-        <v>0.12</v>
+        <v>0.1258503401360544</v>
       </c>
       <c r="J18">
-        <v>0.328</v>
+        <v>0.3299319727891156</v>
       </c>
       <c r="K18">
-        <v>0.128</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.024</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.048</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.18</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02688430148823812</v>
+        <v>0.02495201535508637</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1872299567930869</v>
+        <v>0.1915547024952015</v>
       </c>
       <c r="I19">
-        <v>0.08113298127700432</v>
+        <v>0.08061420345489444</v>
       </c>
       <c r="J19">
-        <v>0.2602016322611618</v>
+        <v>0.2533589251439539</v>
       </c>
       <c r="K19">
-        <v>0.1008161305808929</v>
+        <v>0.09827255278310941</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01776284205472876</v>
+        <v>0.01880998080614204</v>
       </c>
       <c r="N19">
-        <v>0.0009601536245799327</v>
+        <v>0.0007677543186180423</v>
       </c>
       <c r="O19">
-        <v>0.07009121459433509</v>
+        <v>0.06641074856046066</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.2549207873259722</v>
+        <v>0.2652591170825336</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oklahoma_B.xlsx
+++ b/team_specific_matrix/Oklahoma_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1246819338422392</v>
+        <v>0.1359447004608295</v>
       </c>
       <c r="C2">
-        <v>0.6717557251908397</v>
+        <v>0.6566820276497696</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01526717557251908</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1043256997455471</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08396946564885496</v>
+        <v>0.08064516129032258</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03985507246376811</v>
+        <v>0.04013377926421405</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.003344481605351171</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7862318840579711</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01388888888888889</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="P4">
-        <v>0.6944444444444444</v>
+        <v>0.691358024691358</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2361111111111111</v>
+        <v>0.2345679012345679</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06182795698924731</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01344086021505376</v>
+        <v>0.01207729468599034</v>
       </c>
       <c r="E6">
-        <v>0.002688172043010753</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="F6">
-        <v>0.0456989247311828</v>
+        <v>0.04589371980676329</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2365591397849462</v>
+        <v>0.251207729468599</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02956989247311828</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1618357487922705</v>
       </c>
       <c r="R6">
-        <v>0.05376344086021505</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="S6">
-        <v>0.3897849462365591</v>
+        <v>0.3864734299516908</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02116402116402116</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E7">
-        <v>0.002645502645502645</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="F7">
-        <v>0.06084656084656084</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1005291005291005</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02645502645502645</v>
+        <v>0.02657004830917874</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2037037037037037</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="R7">
-        <v>0.06349206349206349</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="S7">
-        <v>0.4100529100529101</v>
+        <v>0.3961352657004831</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09664948453608248</v>
+        <v>0.093935790725327</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01804123711340206</v>
+        <v>0.0202140309155767</v>
       </c>
       <c r="E8">
-        <v>0.001288659793814433</v>
+        <v>0.002378121284185493</v>
       </c>
       <c r="F8">
-        <v>0.07860824742268041</v>
+        <v>0.07847800237812129</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05541237113402062</v>
+        <v>0.06302021403091558</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02319587628865979</v>
+        <v>0.02140309155766944</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1842783505154639</v>
+        <v>0.1854934601664685</v>
       </c>
       <c r="R8">
-        <v>0.06572164948453608</v>
+        <v>0.06658739595719382</v>
       </c>
       <c r="S8">
-        <v>0.4768041237113402</v>
+        <v>0.4684898929845422</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0707070707070707</v>
+        <v>0.07021791767554479</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0202020202020202</v>
+        <v>0.01937046004842615</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04040404040404041</v>
+        <v>0.0387409200968523</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06818181818181818</v>
+        <v>0.0774818401937046</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0202020202020202</v>
+        <v>0.01937046004842615</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1843434343434343</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="R9">
-        <v>0.1035353535353535</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="S9">
-        <v>0.4924242424242424</v>
+        <v>0.486682808716707</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09710494571773221</v>
+        <v>0.09703504043126684</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01990349819059107</v>
+        <v>0.02048517520215633</v>
       </c>
       <c r="E10">
-        <v>0.0006031363088057901</v>
+        <v>0.0005390835579514825</v>
       </c>
       <c r="F10">
-        <v>0.05729794933655006</v>
+        <v>0.05983827493261455</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09589867310012062</v>
+        <v>0.1024258760107817</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01930036188178528</v>
+        <v>0.02210242587601078</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2273823884197829</v>
+        <v>0.2280323450134771</v>
       </c>
       <c r="R10">
-        <v>0.07418576598311219</v>
+        <v>0.07277628032345014</v>
       </c>
       <c r="S10">
-        <v>0.4083232810615199</v>
+        <v>0.3967654986522911</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.001692047377326565</v>
+        <v>0.001579778830963665</v>
       </c>
       <c r="G11">
-        <v>0.1404399323181049</v>
+        <v>0.1469194312796208</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06429780033840947</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="K11">
-        <v>0.2131979695431472</v>
+        <v>0.2164296998420221</v>
       </c>
       <c r="L11">
-        <v>0.5126903553299492</v>
+        <v>0.5102685624012638</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.06768189509306261</v>
+        <v>0.0631911532385466</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7461300309597523</v>
+        <v>0.7456647398843931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07430340557275542</v>
+        <v>0.0838150289017341</v>
       </c>
       <c r="K12">
-        <v>0.01238390092879257</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="L12">
-        <v>0.04024767801857585</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.1269349845201238</v>
+        <v>0.1184971098265896</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6973684210526315</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1447368421052632</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1578947368421053</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04207920792079208</v>
+        <v>0.04740406320541761</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1163366336633663</v>
+        <v>0.1128668171557562</v>
       </c>
       <c r="I15">
-        <v>0.08415841584158416</v>
+        <v>0.07900677200902935</v>
       </c>
       <c r="J15">
-        <v>0.25</v>
+        <v>0.2618510158013544</v>
       </c>
       <c r="K15">
-        <v>0.06930693069306931</v>
+        <v>0.0654627539503386</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009900990099009901</v>
+        <v>0.01128668171557562</v>
       </c>
       <c r="N15">
-        <v>0.004950495049504951</v>
+        <v>0.004514672686230248</v>
       </c>
       <c r="O15">
-        <v>0.07425742574257425</v>
+        <v>0.07674943566591422</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.349009900990099</v>
+        <v>0.3408577878103837</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02727272727272727</v>
+        <v>0.02513966480446927</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1606060606060606</v>
+        <v>0.1675977653631285</v>
       </c>
       <c r="I16">
-        <v>0.08484848484848485</v>
+        <v>0.08100558659217877</v>
       </c>
       <c r="J16">
-        <v>0.3121212121212121</v>
+        <v>0.329608938547486</v>
       </c>
       <c r="K16">
-        <v>0.08787878787878788</v>
+        <v>0.08659217877094973</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02727272727272727</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="N16">
-        <v>0.00303030303030303</v>
+        <v>0.002793296089385475</v>
       </c>
       <c r="O16">
-        <v>0.06666666666666667</v>
+        <v>0.06145251396648044</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2303030303030303</v>
+        <v>0.217877094972067</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1682352941176471</v>
+        <v>0.1720779220779221</v>
       </c>
       <c r="I17">
-        <v>0.1035294117647059</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="J17">
-        <v>0.3364705882352941</v>
+        <v>0.3441558441558442</v>
       </c>
       <c r="K17">
-        <v>0.1070588235294118</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01529411764705882</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="N17">
-        <v>0.001176470588235294</v>
+        <v>0.001082251082251082</v>
       </c>
       <c r="O17">
-        <v>0.05764705882352941</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1905882352941176</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01360544217687075</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1598639455782313</v>
+        <v>0.1635220125786163</v>
       </c>
       <c r="I18">
-        <v>0.1258503401360544</v>
+        <v>0.1163522012578616</v>
       </c>
       <c r="J18">
-        <v>0.3299319727891156</v>
+        <v>0.3238993710691824</v>
       </c>
       <c r="K18">
-        <v>0.119047619047619</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02040816326530612</v>
+        <v>0.0220125786163522</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04761904761904762</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1836734693877551</v>
+        <v>0.1761006289308176</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02495201535508637</v>
+        <v>0.02460202604920405</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1915547024952015</v>
+        <v>0.1928364688856729</v>
       </c>
       <c r="I19">
-        <v>0.08061420345489444</v>
+        <v>0.07850940665701882</v>
       </c>
       <c r="J19">
-        <v>0.2533589251439539</v>
+        <v>0.2583212735166425</v>
       </c>
       <c r="K19">
-        <v>0.09827255278310941</v>
+        <v>0.09985528219971057</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01880998080614204</v>
+        <v>0.01917510853835022</v>
       </c>
       <c r="N19">
-        <v>0.0007677543186180423</v>
+        <v>0.001085383502170767</v>
       </c>
       <c r="O19">
-        <v>0.06641074856046066</v>
+        <v>0.06693198263386396</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.2652591170825336</v>
+        <v>0.2586830680173661</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oklahoma_B.xlsx
+++ b/team_specific_matrix/Oklahoma_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1359447004608295</v>
+        <v>0.1319910514541387</v>
       </c>
       <c r="C2">
-        <v>0.6566820276497696</v>
+        <v>0.6644295302013423</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01612903225806452</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1105990783410138</v>
+        <v>0.1096196868008949</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08064516129032258</v>
+        <v>0.07829977628635347</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04013377926421405</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.003344481605351171</v>
+        <v>0.003205128205128205</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7826086956521739</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06172839506172839</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01234567901234568</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="P4">
-        <v>0.691358024691358</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2345679012345679</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05797101449275362</v>
+        <v>0.05466970387243736</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01207729468599034</v>
+        <v>0.01138952164009112</v>
       </c>
       <c r="E6">
-        <v>0.002415458937198068</v>
+        <v>0.002277904328018223</v>
       </c>
       <c r="F6">
-        <v>0.04589371980676329</v>
+        <v>0.04328018223234624</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.251207729468599</v>
+        <v>0.2460136674259681</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02898550724637681</v>
+        <v>0.02733485193621868</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1618357487922705</v>
+        <v>0.1708428246013667</v>
       </c>
       <c r="R6">
-        <v>0.05314009661835749</v>
+        <v>0.05694760820045558</v>
       </c>
       <c r="S6">
-        <v>0.3864734299516908</v>
+        <v>0.387243735763098</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.108695652173913</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02173913043478261</v>
+        <v>0.02045454545454545</v>
       </c>
       <c r="E7">
-        <v>0.002415458937198068</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="F7">
-        <v>0.06521739130434782</v>
+        <v>0.06136363636363636</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.108695652173913</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02657004830917874</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2028985507246377</v>
+        <v>0.2022727272727273</v>
       </c>
       <c r="R7">
-        <v>0.06763285024154589</v>
+        <v>0.07045454545454545</v>
       </c>
       <c r="S7">
-        <v>0.3961352657004831</v>
+        <v>0.4022727272727273</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.093935790725327</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0202140309155767</v>
+        <v>0.01931818181818182</v>
       </c>
       <c r="E8">
-        <v>0.002378121284185493</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="F8">
-        <v>0.07847800237812129</v>
+        <v>0.07613636363636364</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06302021403091558</v>
+        <v>0.0625</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02140309155766944</v>
+        <v>0.02386363636363636</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1854934601664685</v>
+        <v>0.1852272727272727</v>
       </c>
       <c r="R8">
-        <v>0.06658739595719382</v>
+        <v>0.07045454545454545</v>
       </c>
       <c r="S8">
-        <v>0.4684898929845422</v>
+        <v>0.4647727272727273</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07021791767554479</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01937046004842615</v>
+        <v>0.02064220183486239</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0387409200968523</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0774818401937046</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01937046004842615</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1864406779661017</v>
+        <v>0.1995412844036697</v>
       </c>
       <c r="R9">
-        <v>0.1016949152542373</v>
+        <v>0.09862385321100918</v>
       </c>
       <c r="S9">
-        <v>0.486682808716707</v>
+        <v>0.4793577981651376</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09703504043126684</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02048517520215633</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="E10">
-        <v>0.0005390835579514825</v>
+        <v>0.0005186721991701245</v>
       </c>
       <c r="F10">
-        <v>0.05983827493261455</v>
+        <v>0.06068464730290456</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1024258760107817</v>
+        <v>0.1011410788381743</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02210242587601078</v>
+        <v>0.02282157676348548</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2280323450134771</v>
+        <v>0.2282157676348548</v>
       </c>
       <c r="R10">
-        <v>0.07277628032345014</v>
+        <v>0.07313278008298756</v>
       </c>
       <c r="S10">
-        <v>0.3967654986522911</v>
+        <v>0.3973029045643153</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.001579778830963665</v>
+        <v>0.001494768310911809</v>
       </c>
       <c r="G11">
-        <v>0.1469194312796208</v>
+        <v>0.1479820627802691</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06161137440758294</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="K11">
-        <v>0.2164296998420221</v>
+        <v>0.2137518684603886</v>
       </c>
       <c r="L11">
-        <v>0.5102685624012638</v>
+        <v>0.5171898355754858</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0631911532385466</v>
+        <v>0.06128550074738415</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7456647398843931</v>
+        <v>0.7372654155495979</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0838150289017341</v>
+        <v>0.08042895442359249</v>
       </c>
       <c r="K12">
-        <v>0.0115606936416185</v>
+        <v>0.01340482573726542</v>
       </c>
       <c r="L12">
-        <v>0.04046242774566474</v>
+        <v>0.04825737265415549</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.1184971098265896</v>
+        <v>0.1206434316353887</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7261904761904762</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.130952380952381</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1428571428571428</v>
+        <v>0.1348314606741573</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04740406320541761</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1128668171557562</v>
+        <v>0.113871635610766</v>
       </c>
       <c r="I15">
-        <v>0.07900677200902935</v>
+        <v>0.07660455486542443</v>
       </c>
       <c r="J15">
-        <v>0.2618510158013544</v>
+        <v>0.2567287784679089</v>
       </c>
       <c r="K15">
-        <v>0.0654627539503386</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01128668171557562</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="N15">
-        <v>0.004514672686230248</v>
+        <v>0.004140786749482402</v>
       </c>
       <c r="O15">
-        <v>0.07674943566591422</v>
+        <v>0.07453416149068323</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3408577878103837</v>
+        <v>0.3436853002070394</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02513966480446927</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1675977653631285</v>
+        <v>0.1684491978609626</v>
       </c>
       <c r="I16">
-        <v>0.08100558659217877</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="J16">
-        <v>0.329608938547486</v>
+        <v>0.3262032085561498</v>
       </c>
       <c r="K16">
-        <v>0.08659217877094973</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02793296089385475</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="N16">
-        <v>0.002793296089385475</v>
+        <v>0.00267379679144385</v>
       </c>
       <c r="O16">
-        <v>0.06145251396648044</v>
+        <v>0.06149732620320856</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.217877094972067</v>
+        <v>0.2192513368983957</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02164502164502164</v>
+        <v>0.02028397565922921</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1720779220779221</v>
+        <v>0.1703853955375254</v>
       </c>
       <c r="I17">
-        <v>0.1038961038961039</v>
+        <v>0.101419878296146</v>
       </c>
       <c r="J17">
-        <v>0.3441558441558442</v>
+        <v>0.3397565922920893</v>
       </c>
       <c r="K17">
-        <v>0.1060606060606061</v>
+        <v>0.1054766734279919</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01623376623376623</v>
+        <v>0.01926977687626775</v>
       </c>
       <c r="N17">
-        <v>0.001082251082251082</v>
+        <v>0.00101419878296146</v>
       </c>
       <c r="O17">
-        <v>0.05627705627705628</v>
+        <v>0.05983772819472617</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1785714285714286</v>
+        <v>0.1825557809330629</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01257861635220126</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1635220125786163</v>
+        <v>0.1588235294117647</v>
       </c>
       <c r="I18">
-        <v>0.1163522012578616</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="J18">
-        <v>0.3238993710691824</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="K18">
-        <v>0.1226415094339623</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0220125786163522</v>
+        <v>0.02058823529411765</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.002941176470588235</v>
       </c>
       <c r="O18">
-        <v>0.06289308176100629</v>
+        <v>0.06176470588235294</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1761006289308176</v>
+        <v>0.1794117647058824</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02460202604920405</v>
+        <v>0.02639698320191978</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1928364688856729</v>
+        <v>0.1895783339046966</v>
       </c>
       <c r="I19">
-        <v>0.07850940665701882</v>
+        <v>0.07816249571477546</v>
       </c>
       <c r="J19">
-        <v>0.2583212735166425</v>
+        <v>0.2529996571820363</v>
       </c>
       <c r="K19">
-        <v>0.09985528219971057</v>
+        <v>0.09941720946177579</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01917510853835022</v>
+        <v>0.01816935207404868</v>
       </c>
       <c r="N19">
-        <v>0.001085383502170767</v>
+        <v>0.001028453890983888</v>
       </c>
       <c r="O19">
-        <v>0.06693198263386396</v>
+        <v>0.07062050051422694</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.2586830680173661</v>
+        <v>0.2636270140555365</v>
       </c>
     </row>
   </sheetData>
